--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2513.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2513.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.629282341647829</v>
+        <v>1.618343710899353</v>
       </c>
       <c r="B1">
-        <v>3.728080666413451</v>
+        <v>2.591740369796753</v>
       </c>
       <c r="C1">
-        <v>3.649702993077553</v>
+        <v>2.867287397384644</v>
       </c>
       <c r="D1">
-        <v>2.210426179240666</v>
+        <v>3.2119460105896</v>
       </c>
       <c r="E1">
-        <v>2.433284133313166</v>
+        <v>2.946684598922729</v>
       </c>
     </row>
   </sheetData>
